--- a/Team-Data/2012-13/1-16-2012-13.xlsx
+++ b/Team-Data/2012-13/1-16-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.579</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.452</v>
       </c>
       <c r="L2" t="n">
         <v>8.699999999999999</v>
@@ -699,37 +766,37 @@
         <v>0.374</v>
       </c>
       <c r="O2" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="P2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.703</v>
+        <v>0.704</v>
       </c>
       <c r="R2" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="V2" t="n">
         <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
         <v>17.7</v>
@@ -738,19 +805,19 @@
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -789,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -807,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.526</v>
+        <v>0.541</v>
       </c>
       <c r="H3" t="n">
         <v>48.8</v>
@@ -866,37 +933,37 @@
         <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.464</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O3" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.786</v>
       </c>
       <c r="R3" t="n">
         <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
         <v>23.3</v>
@@ -905,28 +972,28 @@
         <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -938,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -956,16 +1023,16 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -974,7 +1041,7 @@
         <v>17</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -983,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -995,10 +1062,10 @@
         <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
         <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.342</v>
+        <v>0.348</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1099,37 +1166,37 @@
         <v>18.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
         <v>96.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="n">
         <v>9</v>
       </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1138,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1150,16 +1217,16 @@
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
         <v>6</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1177,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB4" t="n">
         <v>15</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF5" t="n">
         <v>29</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>28</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1308,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.595</v>
+        <v>0.583</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M6" t="n">
         <v>12.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="R6" t="n">
         <v>12.4</v>
@@ -1442,10 +1509,10 @@
         <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.9</v>
@@ -1454,25 +1521,25 @@
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1481,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1523,31 +1590,31 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
         <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.244</v>
+        <v>0.225</v>
       </c>
       <c r="H7" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S7" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W7" t="n">
         <v>8.300000000000001</v>
@@ -1642,16 +1709,16 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
         <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.4</v>
+        <v>-5.7</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1663,13 +1730,13 @@
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1678,16 +1745,16 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.425</v>
+        <v>0.41</v>
       </c>
       <c r="H8" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J8" t="n">
         <v>83.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.792</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U8" t="n">
         <v>22.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W8" t="n">
         <v>7.7</v>
@@ -1821,25 +1888,25 @@
         <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
         <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>20</v>
@@ -1851,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1866,10 +1933,10 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1881,22 +1948,22 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX8" t="n">
         <v>16</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>9</v>
@@ -1905,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.326</v>
+        <v>0.33</v>
       </c>
       <c r="O9" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="R9" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S9" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="U9" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W9" t="n">
         <v>8.1</v>
@@ -2003,34 +2070,34 @@
         <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
         <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2045,16 +2112,16 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2072,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -2221,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2230,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV10" t="n">
         <v>24</v>
@@ -2269,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
         <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.622</v>
+        <v>0.639</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O11" t="n">
         <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.792</v>
@@ -2349,22 +2416,22 @@
         <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W11" t="n">
         <v>7.1</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
@@ -2373,22 +2440,22 @@
         <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2430,19 +2497,19 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.525</v>
+        <v>0.538</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L12" t="n">
         <v>9.9</v>
@@ -2516,61 +2583,61 @@
         <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R12" t="n">
         <v>10.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA12" t="n">
         <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2579,10 +2646,10 @@
         <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,13 +2661,13 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>16</v>
@@ -2609,13 +2676,13 @@
         <v>23</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2624,19 +2691,19 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
         <v>0.42</v>
       </c>
       <c r="L13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R13" t="n">
         <v>13.1</v>
@@ -2716,10 +2783,10 @@
         <v>33.4</v>
       </c>
       <c r="T13" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V13" t="n">
         <v>14.9</v>
@@ -2731,28 +2798,28 @@
         <v>6.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
         <v>4</v>
       </c>
-      <c r="AE13" t="n">
-        <v>5</v>
-      </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
         <v>8</v>
@@ -2764,25 +2831,25 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2812,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2961,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,19 +3037,19 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3131,7 +3198,7 @@
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3155,10 +3222,10 @@
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
@@ -3173,10 +3240,10 @@
         <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -3214,103 +3281,103 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.649</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.434</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA16" t="n">
         <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,13 +3404,13 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>17</v>
@@ -3352,10 +3419,10 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>18</v>
@@ -3364,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,37 +3481,37 @@
         <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>78.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.488</v>
+        <v>0.491</v>
       </c>
       <c r="L17" t="n">
         <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.391</v>
+        <v>0.395</v>
       </c>
       <c r="O17" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="U17" t="n">
         <v>22.4</v>
@@ -3453,7 +3520,7 @@
         <v>13.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>5.2</v>
@@ -3462,19 +3529,19 @@
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA17" t="n">
         <v>19.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,16 +3568,16 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,10 +3586,10 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
@@ -3531,16 +3598,16 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>23</v>
@@ -3686,13 +3753,13 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
@@ -3701,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
         <v>9</v>
@@ -3722,10 +3789,10 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3865,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3886,7 +3953,7 @@
         <v>11</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
@@ -3895,13 +3962,13 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.445</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="P20" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
         <v>11.4</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA20" t="n">
         <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4</v>
+        <v>-4.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
@@ -4044,43 +4111,43 @@
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4095,7 +4162,7 @@
         <v>28</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>4.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
@@ -4220,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -4235,7 +4302,7 @@
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4262,16 +4329,16 @@
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.795</v>
+        <v>0.789</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
@@ -4336,55 +4403,55 @@
         <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.836</v>
+        <v>0.837</v>
       </c>
       <c r="R22" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4426,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4438,7 +4505,7 @@
         <v>18</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4450,13 +4517,13 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>10</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,49 +4573,49 @@
         <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.346</v>
       </c>
       <c r="O23" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="P23" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
         <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y23" t="n">
         <v>4.8</v>
@@ -4560,22 +4627,22 @@
         <v>16.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
@@ -4590,13 +4657,13 @@
         <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,22 +4672,22 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS23" t="n">
         <v>7</v>
       </c>
-      <c r="AR23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>9</v>
-      </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,10 +4696,10 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>-4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
@@ -4772,7 +4839,7 @@
         <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
         <v>18</v>
@@ -4814,7 +4881,7 @@
         <v>8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
         <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -4963,7 +5030,7 @@
         <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4978,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
@@ -5002,10 +5069,10 @@
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.513</v>
+        <v>0.526</v>
       </c>
       <c r="H26" t="n">
         <v>48.9</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O26" t="n">
         <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T26" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U26" t="n">
         <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>7.5</v>
@@ -5100,28 +5167,28 @@
         <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG26" t="n">
         <v>15</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5130,7 +5197,7 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5145,28 +5212,28 @@
         <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR26" t="n">
         <v>13</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>21</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>19</v>
@@ -5178,13 +5245,13 @@
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
         <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.385</v>
+        <v>0.368</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O27" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P27" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
         <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5309,28 +5376,28 @@
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP27" t="n">
         <v>13</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>14</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5342,7 +5409,7 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5354,7 +5421,7 @@
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -5398,88 +5465,88 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.732</v>
+        <v>0.725</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
       <c r="R28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
         <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,10 +5573,10 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5524,16 +5591,16 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="n">
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.359</v>
+        <v>0.368</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.438</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N29" t="n">
         <v>0.345</v>
       </c>
       <c r="O29" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
         <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
         <v>22.3</v>
@@ -5637,43 +5704,43 @@
         <v>12.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -5685,25 +5752,25 @@
         <v>10</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>9</v>
       </c>
-      <c r="AP29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>10</v>
-      </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
@@ -5870,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,10 +5946,10 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5891,13 +5958,13 @@
         <v>14</v>
       </c>
       <c r="AU30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW30" t="n">
         <v>9</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="J31" t="n">
         <v>83.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="L31" t="n">
         <v>6.4</v>
@@ -5974,52 +6041,52 @@
         <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>0.326</v>
       </c>
       <c r="O31" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
         <v>11.3</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6052,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6067,13 +6134,13 @@
         <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>22</v>
@@ -6082,16 +6149,16 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-16-2012-13</t>
+          <t>2013-01-16</t>
         </is>
       </c>
     </row>
